--- a/biology/Zoologie/Phronia_brevipennis/Phronia_brevipennis.xlsx
+++ b/biology/Zoologie/Phronia_brevipennis/Phronia_brevipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phronia brevipennis est une espèce fossile d'insectes diptères de la famille des Mycetophilidae (les « moucherons fongiques »).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Phronia brevipennis est décrite par Nicolas Théobald en 1937[1],[2].
-Une collection du Chattien de l'Oligocène de France
-L'holotype est un échantillon A109 des collections de l'institut géologique de Lyon provenant du gypse d'Aix-en-Provence et de l'époque fossile Chattien de l'Oligocène ou 28,1-23,03 Ma[1],[2].
-Confirmation du genre
-Le genre est confirmé en 2021 par Sarah Siqueira Oliveira (d) et Dalton De Souza Amorim (d)[3],[2].
-Étymologie
-L'épithète spécifique latine brevipennis signifie « poils courts ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Phronia brevipennis est décrite par Nicolas Théobald en 1937,.
 </t>
         </is>
       </c>
@@ -545,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de teinte noirâtre sur tête, thorax, brun foncé sur abdomen, brun clair sur ailes. Tête arrondie portant un œil à facettes de grande taille ; deux antennes formées de seize articles subcylindriques dont la grosseur diminue vers l'extrémité ; antennes un peu recourbées, longueur ne dépassant pas celle de la tête et du thorax réunis. Thorax globuleux, hautement arqué, scutellum presque semi-circulaire. Abdomen allongé en forme de fuseau ; sept segments. Pattes bien conservées, longues et grêles, hanches courtes, trochanter (arthropodes) court, fémur assez fort ; tibia grêle, couvert de poils épars et portant deux rangées de soies espacées, deux forts cils à l'extrémité ; tarses grêles, le Ier article plus long que les autres et portant quelques poils raides, par ailleurs finement velus. ailes atteignant presque l'extrémité de l'abdomen ; nervation bien conservée (v. fig.) ; C se terminant avant le sommet ; Sc rudimentaire ; R se terminant vers le tiers extérieur ; Rs naissant avant le milieu de l'aile par une branche courte à angle droit, M réunie à Rs par une nervure transversale courte, se bifurquant immédiatement après, les deux branches divergeant régulièrement ; Cu se bifurquant au delà, les deux branches s'écartant fortement ; A vagues. »[1].
-Dimensions
-La longueur totale est de 4,2 mm[1].
-Affinités
-« La nervation est identique à celle des Phronia ; mais dans ces derniers les ailes dépassent en général légèrement l'abdomen. L'échantillon a été marqué Sciara florilega par M. de Serres et cité sous le nom de Sciara. En réalité il ne peut s'agir du g. Sciara dans lequel la nervure M se divise au delà du milieu de l'aile. Par ailleurs le parcours de R et Rs est identique dans le g. Sciara, ce qui explique la détermination de M. de Serres. »[1].
+          <t>Une collection du Chattien de l'Oligocène de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype est un échantillon A109 des collections de l'institut géologique de Lyon provenant du gypse d'Aix-en-Provence et de l'époque fossile Chattien de l'Oligocène ou 28,1-23,03 Ma,.
 </t>
         </is>
       </c>
@@ -582,13 +590,202 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est confirmé en 2021 par Sarah Siqueira Oliveira (d) et Dalton De Souza Amorim (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine brevipennis signifie « poils courts ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de teinte noirâtre sur tête, thorax, brun foncé sur abdomen, brun clair sur ailes. Tête arrondie portant un œil à facettes de grande taille ; deux antennes formées de seize articles subcylindriques dont la grosseur diminue vers l'extrémité ; antennes un peu recourbées, longueur ne dépassant pas celle de la tête et du thorax réunis. Thorax globuleux, hautement arqué, scutellum presque semi-circulaire. Abdomen allongé en forme de fuseau ; sept segments. Pattes bien conservées, longues et grêles, hanches courtes, trochanter (arthropodes) court, fémur assez fort ; tibia grêle, couvert de poils épars et portant deux rangées de soies espacées, deux forts cils à l'extrémité ; tarses grêles, le Ier article plus long que les autres et portant quelques poils raides, par ailleurs finement velus. ailes atteignant presque l'extrémité de l'abdomen ; nervation bien conservée (v. fig.) ; C se terminant avant le sommet ; Sc rudimentaire ; R se terminant vers le tiers extérieur ; Rs naissant avant le milieu de l'aile par une branche courte à angle droit, M réunie à Rs par une nervure transversale courte, se bifurquant immédiatement après, les deux branches divergeant régulièrement ; Cu se bifurquant au delà, les deux branches s'écartant fortement ; A vagues. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La nervation est identique à celle des Phronia ; mais dans ces derniers les ailes dépassent en général légèrement l'abdomen. L'échantillon a été marqué Sciara florilega par M. de Serres et cité sous le nom de Sciara. En réalité il ne peut s'agir du g. Sciara dans lequel la nervure M se divise au delà du milieu de l'aile. Par ailleurs le parcours de R et Rs est identique dans le g. Sciara, ce qui explique la détermination de M. de Serres. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phronia_brevipennis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Phronia est connu des Indes, de l'Europe, une espèce a été décrite du Groenland. On les rencontre dans les bois et sur les arbustes. »[1].
+« Le g. Phronia est connu des Indes, de l'Europe, une espèce a été décrite du Groenland. On les rencontre dans les bois et sur les arbustes. ».
 </t>
         </is>
       </c>
